--- a/data/usa2020/readme.xlsx
+++ b/data/usa2020/readme.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\prodebat\USA2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rafa\investigacion\prodebat\usa2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC59A71-9C85-4D65-BED4-474C3FBDD404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309C91EE-1451-4B5B-856E-5E3980566BB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="15000" xr2:uid="{546D2048-3BC0-4FA8-A264-CB9C844BBFE0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>_id</t>
   </si>
@@ -75,9 +75,6 @@
     <t>nRTin</t>
   </si>
   <si>
-    <t>sampleusa2020_user.xlsx</t>
-  </si>
-  <si>
     <t>Identificador interno, utilizado por twitter para el usuario</t>
   </si>
   <si>
@@ -135,30 +132,15 @@
     <t>Comentarios</t>
   </si>
   <si>
-    <t>sampleusa2020_tweet.xlsx</t>
-  </si>
-  <si>
     <t>@JoeBiden "@realDonaldTrump" "#Trump" "#Biden"</t>
   </si>
   <si>
-    <t>Muestra de 20000 tweets con sus usuarios de un total de 58615225 tweets de 5313595 usuarios</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Número de orden en el fichero, de 1 a 20000</t>
-  </si>
-  <si>
     <t>Identificador único del tweet generador por twitter</t>
   </si>
   <si>
     <t>userid</t>
   </si>
   <si>
-    <t>identificador del usuario, para buscar en sampleusa2020_user.xlsx</t>
-  </si>
-  <si>
     <t>Nick del usuario</t>
   </si>
   <si>
@@ -184,16 +166,75 @@
   </si>
   <si>
     <t>PRODEBAT</t>
+  </si>
+  <si>
+    <t>tweet.csv</t>
+  </si>
+  <si>
+    <t>user.csv</t>
+  </si>
+  <si>
+    <t>Columna</t>
+  </si>
+  <si>
+    <t>59970049 elementos</t>
+  </si>
+  <si>
+    <t>5543680 elementos</t>
+  </si>
+  <si>
+    <t>identificador del usuario, para buscar en user.csv</t>
+  </si>
+  <si>
+    <t>Datos del debate en Twitter la campaña USA 2020</t>
+  </si>
+  <si>
+    <t>Descargado por</t>
+  </si>
+  <si>
+    <t>Rafael Caballero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="22"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="26"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -222,15 +263,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -261,8 +306,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F146365E-1F72-4735-8071-D6D567EABDEC}" name="Tabla2" displayName="Tabla2" ref="A24:B31" totalsRowShown="0">
   <autoFilter ref="A24:B31" xr:uid="{F291E4E9-EA68-406F-9C85-272662CC4AB4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{576BF6E0-C2B8-425D-8282-8EF6B553EF4A}" name="N"/>
-    <tableColumn id="2" xr3:uid="{4A91FEB5-A6BA-45DE-92AA-C2A2C22ECF27}" name="Número de orden en el fichero, de 1 a 20000"/>
+    <tableColumn id="1" xr3:uid="{576BF6E0-C2B8-425D-8282-8EF6B553EF4A}" name="Columna"/>
+    <tableColumn id="2" xr3:uid="{4A91FEB5-A6BA-45DE-92AA-C2A2C22ECF27}" name="Descripción"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -565,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFC093E-7401-48E2-BFAB-31050962F803}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -579,47 +624,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="33.5" x14ac:dyDescent="0.75">
+      <c r="A7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -627,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -635,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -643,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -651,7 +707,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -659,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -667,7 +723,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -675,7 +731,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -683,7 +739,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -691,7 +747,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -699,7 +755,7 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -707,7 +763,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -715,7 +771,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -723,20 +779,23 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -744,15 +803,15 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -760,7 +819,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -768,15 +827,15 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -784,22 +843,30 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="21" x14ac:dyDescent="0.5">
+      <c r="B36" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A23" r:id="rId1" xr:uid="{A0E2A2CD-2312-4E74-AA26-5E4972BF45C0}"/>
+    <hyperlink ref="A7" r:id="rId2" xr:uid="{614554D0-3CAE-4F4E-9C2A-0435211DE267}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>